--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Line</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,31 +36,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>152,63,64,65,66</t>
+  </si>
+  <si>
+    <t>30,50,50,50,50</t>
+  </si>
+  <si>
     <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:00:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,50,30,30,20,20,20,20,20,30,30,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,13,14,15,8,9,10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,30,20,20,20,20,20,30,30,30</t>
+  </si>
+  <si>
+    <t>77,9,8,7</t>
+  </si>
+  <si>
+    <t>30,30,30,30</t>
+  </si>
+  <si>
+    <t>0:00:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:01:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:01:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:02:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>151,57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,8 +456,8 @@
   <cols>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -456,48 +482,68 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
